--- a/Testdata/TC_35.xlsx
+++ b/Testdata/TC_35.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>ER0AAB+LCAAAAAAAAAOlWVtvG8cV/isLPrVAyV2Ski0Low14k0KUFAWSqqy8FMPdkTj1XtidWUl8S4EEKdIURVE4RXpFn1IUqGu0CZDavfyXwJLdp/6FnrnsjaRirWoI1s4535k5c+bcZoTeufI944JEjIbBXqVesyoGCZzQpcH5XiXmZ9X6g8o7NupdOcQ7whH2CQewAVIB271idK8y53yxa5qXl5e1y2YtjM7NhmXVzcfDwcSZEx9XacA4DhxSSaXct0tVbNRx/SHh2MUcK8m9Sn/Sr3UIdbpAG+IAn5Oo1o4ZDQhjvYBTTgkTkhHBnHS6w++pjdmN2oNaHZlr9AzZjqnnKlwBqegaB8uSKfWJ3bDqO1Vrp9qsT62Hu8367tZObXt7671EMAWiAWZ8QqIL6kjChGN/IcWtnWbdetisb+0gcyMI5soMYKOR547JBWXE7RDPY6UsYuoDbDkcdl3OmBYyc7J6ovurcBDhxXxKuUfKqTEetg0/0Lpkk9hoP4yIA/a7l0qH5HIUabNOFwPgTuc04ssuXpae65iRaLQQRionaqNuGPCWRyJ+vICzJi64AjBsHsUEmbcwM6EuZQ580yAmrn2GPZYXKjDRSRg9YQvskEOIY1PMcRl4IXbB4ThlnDrZomsMdBSFC5gRFm+HnrsPs2rwBkY6cz8AE4tl22H4JNNuExPJU5XnC2fqY57A1+hoMg8vR4G3nMQz5kR0RtxuO0Fv5CERkFq6EzMe+qBFRkKKlqMs4R8E4CoZdYlDfewdeWBEZjdhlgIBtWIenlHeCb3YD1ii0woVncCOpuQq3WE6RiM43EAYPQz6QYJXZt7IKgqMw8t0zXWGNEKO3GJOctzrjFVwF2jJ8a1z5ImIXe5TD+pD/ixy1KJXTOaE8I0uoThIpMJ9UXHsluchMxsicEtwbVDDtqBoVOXP1LJ25Q8sm7JRL3BvxyVMdBj7oxmE74XckF0H3goJwRa8toeDJ0A9oXx+2EpU38BBasO34td5CAJ14eGlJKdGydNQP3C82CUq/vvBmfRIoZs6w1vZaI00gJC2EQ6W0+UC0jCjuxw+9ipQmHcZj6D0V2wnjAMeLUWiQKaGvk2GxbNALoC9O8ucReSHMXQcy/04cDqhe/fVXGWd44Dyu2sYxpHKfncXkdYTiTBmXSJSiszxd5Z3yuyJRaXgfkD8MKDO3a0NRhbau/fYCEui6s4SRMXXnfEelHFV5USs31ksgnYR6lqpZVqMhQ6VzqrDw83Jm7eETJec4diDVo1DRT1PU+0qGbXYk1VMnoSOIy9JeLZohBl0wo7r1xzoFUS3V3NCXxBMaEBPJsjM40XD45BecD7AwXkMLUWaV1bpaboV5XAa4YCJ7aQdxErm3QxCSZ5SnY29nuyQuQJBU+Ivwgh7Q7AJ3dcepzsjaDqGmM/1CKqYR5zEvmYmmkoVlUp0fhtMliO1AxHrOkOuECVI+KdqtzNMRkNii0OISK+DPTqLVEJNivYmHpxV1gYmqVdsrmRLmJgfrlxQZ79LlqIPzwaaLr21njCU74ocak/GWzuNbavZgB5GjJHc8Zhgz+hBHHNi9IMLwrgPYrvGmDDqwhfF3q7xLpkRCvVPmkhXoNLSeTm0n6R4qUoL9C1SigDoLM4pVJB1YMrJBOxTgiNvmQOqrQ5CB3A3P/739W+ev3rx+c3HT998+cF///GrV//82fWzD+Hj5q9/u/7kl2qbCoymeOYRqdC0vbNjNbfAz1ISEsY1ZRPsxg6XtNNT2fumY6SvcHLQ6fU7B4O2TCUpMRFX1cQUt8NlGGfDidqEXEgeqZl4goLY0yQ16XGBm6tOtritXZAiOs+/TVDZ4vXLz1+//POt0tpgWZtVf/Rou1pvvLULg3tvfQ2XdmGDQvoX4K2qtV1tNHLgFQwaq9yf2qnv2nCtfmQ1mlY9TeNu6sibQKssPdMUn5srcorUUZ1R6gL5ccKUjj+FEEnZKhRyA+2iX/7kzV+eFlDauppSnAWUkx2MWMxMBnLqw/HUmIyOx52eMe1NhJ9kvBxOTf4NYL16Gk8FpwqCGHvfMaCuQx0zKnD3qRjhmUGwMzeWEIm5OCw42yaqWuieU65qeRCF8UKdSE4go25Aptlko8SGXCN50p5rSSdjbYArXa///sUmAb2RbtbLpi8deRoqcBQpx9dR+9m/Xn310asXL26e//z6qx8VZtDrpA8A4OcQTflh6vaQ8nS9WaGgk4k05hPr+7n6ooniDnUU0oAzu/5AXp/0CIFoXcwmf6O+DyVPTiztBfQVCnoXs94V14FtHyKzSAA9FxiqbZjdMlOCyuGZXf/z29/d/PqLm0+fv/noT9cf//H6k09fv/z9m2d/UFF38/T5zU+f6Sy/WgikLuLuqvo/Q76EOIaIRkPUbuPr939hBCE3oOUwYpmRvn7/s9xkQlHZnGQzQzeXKlJUYQ2aFxZyRk6VVIeCXCqiGoCOKGHNFKGLWLigTrbIe1UxlYg7yfhWf1qNGTFC6Ka+DTspgjPhu8ppEVVSjx5ajXpDc5U2YgszzHKmP/DCGTQZCUM+NaxAClLfLJBh5XoHg1G7NcggSolR5JJIuKH6QElLKUpKnyWjxNVyFOBC4+fEnngdWoOts9KZc2nM1M8sZy1XpL/NrxQFBOrEUaQaokC/2k/iBTTDyWPc7Xz5QJnrfw9Vr5rviLNxv1vkwzjHhUJYZAuC5MvUpFkqTfWZeNFR7eyhME02BF7hURPMoR/mVad1AX1lZIq804uiMNqYfDJOAhtCJw0ZxcwsnmLkmaqu283OKiEkCS/9UJc+vcOwSzzCy71am5n0MLy4tyycfVnRPht5rjZmuatHapZsgvzTvXCU//flXjlbK4qgsRJPfaWf2pM76xiuuiW1UVuRguIGCKvrt/B9GjH+WGQC/aUopynlVHWoj8WFS33I8am91VAEAJj52c2CmknocvUHlNAbUJ+WvBZaSXwXJwFbLhaqheuX8xRRWg7JFTSYuRkgKc5+AGVDPaGUmU05LOTSVF48WzJ6PudlFXs4w8QlM6vqzEijuuVaO9VHhDSr9Tr8j51Gw7K2xaOnnhwyByWXJRcxkwPL/rBp/w8lieNLER0AAA==</t>
+          <t>Ch8AAB+LCAAAAAAAAAOlWVlvG8kR/isDPiVAqDkoWQfas6BIykuEOiDSsbUvQXOmKXXUnGGmeyTxbQMk2GCzQRAE3mBzIk8bBIhjJLvAxs7xXxaW1nnKX0j1MRdJrTWKIcDTVfVVV1dXV1U30TtXU2ZdkITTOHrYcNechkWiIA5pdPqwkYpJ033QeMdHvauAsCOc4CkRIGwBKuI7V5w+bJwJMdux7cvLy7XL1lqcnNqe47j20/3BMDgjU9ykERc4CkgjR4VvRzV81Amn+0TgEAuskQ8b/WF/rUNo0AXaPo7wKUnWdlNOI8J5LxJUUMIlMiFYkE53/zt6Yb639mDNRfYSvZDcTSkLtVxFUtONHExLRnRKfM/xnKaz1fTWR66747k765trjrf9XgbMBdEAczEkyQUNFGEo8HSm4M6Wt+66nru+ieyVQqCrcICPDll4TC4oJ2GHMMZrecQ2G9gOBKy6njMdZJewRtH9TXiU4NnZiApG6sL34oQE4Kh7zX1ALg8T47/RbADc0RlNxLyL57V1PeYkOZxJb9SD+qgbR6LNSCIez2BTSQh7DgxfJClB9i3MAtSlPIBvGqUk9CeY8TKowkRP4uScz3BADuDA2lLHZcRiHEJkCcoFDYpJlxjoKIlnoBEm341ZuAdajfAKRq65H4GL5bS7cXxeWLeKiVQMqGiAPZ1ikYkv0dHwLL48jNh8mI55kNAxCbu7mfRKHpInz6A7KRfxFKwoSEjTSpQ5/IOTtkhGXRLQKWZHDJzI/RZoqRBQOxXxhIpOzNJpxDObFqjoCaxoRK7yFeZjdAibG0mnx1E/yuS1m1eyqoDj+DKfc5mhnFAit3mQbfcyY1G4C7Rs+5Y5akfkKvcog0JQ3osStRoVwzNCxMqQ0Bwkc96eLC1+mzFkF0MEYQmhDWb4DlSHpvobOc6O+oNpczbqReHtchkTHaTTwzEc3wu1IN8F3gIJwRLYLsPROVCfUHF20M5MX8FBesG3yi/zEBzUGcNzRc6dUqahfhSwNCT6/PejiYpIaZvew1vZaIk0gCPtIxzNR/MZ5FtOdwR8PGxABd7hIoEa3/CDOI1EMpeJAtlG9G0Yno4jNQFmd8ZMEvL9FFqL+V4aBZ04vPtsofbO44iKu1sYp4nOfneHKO/JRJjyLpEpReX4O+ODOmviSS3xaUSmcUSDu3sbnCytD++xEJ6dqjsjiD5fd5ZnUMZ1lZNn/c6wBPpCqGu1pmlzHgdUBas5HmEJb99yZLpkglMGPZmAinqap9pFMmrz80WZMgk9TliW8HzZ8XJoeYNwuhZAryDburUgnkqCDZ3mkyGyy/Ky4QlILzod4Og0hZYizyuL9DzdynI4SnDE5XLyDmIh864WQlme0p2Nv5zskL0ggkZkOosTzPbBJ3TPRJzpjKDp2MfizIygijESZP61C2iOqhqV2fw2MVWO9ArkWTcZcoGohGR86r66kCloSC5xH04k62BGx4lOqFnRXsWDvSrawCz1ysXVbAkz98PdCurst8lcNtzFwNBVtLoZQ8euzKH+8Hh9y9twWh70MHKM1IqPCWZWD86xIFY/uiBcTAG2Yx0TTkP4opjtWO+SMaFQ/5SLTAWqjS7j0F6W4pUpbbC3SqkKQGdxSqGCLAvmnALgnxCcsHlJUC91EAcgd/Pjf1//5sXrl5/efPjszec//O8/fvX6nz+7fv4j+Lj569+uP/qlXqYWRiM8ZkQZNNrd2nJa6xBnOQlJ59qqCQ7TQCjayYnqffMxMnc1Nej0+p1Hg12VSnJiBtfVxJbXwHmcFsOhXoSaSG2pnUWCFvFHWWoy4wq3VJ18eS27IFXpMv82oPbFV68+/erVn29FG4cVbZa7vb3RdL23dmGe47pLcnkXNqikfym83nQ2mp5XEl6QQcc69+d+6od+y3W2Ha/luHkaD/NAXiW0yDKaRvjUXsBpUkd3RnkIlMcZUwX+CI5IztZHoTQwIfr5T9785VlFynjXUKpawDjVwcjJ7GygVB8cj6zh4ePjTs8a9YYyTgpeSU4r/xphM3t+nipBFUUpZt+yoK5DHbMacPdpWPHEIjg4s+ZwEkvnsBJsq6h6onuqXLTyURKnM70jJUBBXSGZZ5OViBW5RvGUP5eSTsFaIa5tvf77Z6sAZiHdopf1j/d3rWmUx6WioQpHk0p8c2o/+dfrLz54/fLlzYufX3/xg4oGM0/+AABxDqepPMzDHlKeqTcLFPRkqJx57ny3VF8MUd6hjmIaCe67D9T1yYwQQF2pTf2P+lMoeUqx8hfQFyjoXcx7V8IcbP8A2VUC2DnDUG3j4paZE3QOL/z6n9/+7ubXn918/OLNB3+6/vCP1x99/NWr3795/gd96m6evbj56XOT5RcLgbJF3l11/2epl5DAkqfRkrXb+vL9X1hRLCxoOaxUZaQv3/+kpEwaqpqTQjN0c7khVROWRMtgibNKpuQ2VHA5RDcAHVnCWrmEKWLxjAbFJO81pSp57hTjG/1RM+XEiqGb+iaspCpcgO+KMxBdUo82Hc/1DFdbI5cwxrzk+kcsHkOTkTHUU8OCSAX19YBCVs33aHC42x4UItqIwyQkiQxD/YH6PGsqs/AqUYALzV6QMvkitCS2zELZVyl12eZpZdIOZcpb/TJRkUCdNEl0ExSZJ/lhOoMGOHuAu52vHiVLPe+B7k/LXXAx7nerfBiXuFD8qmxJUHyVjgxLp6Y+l684uoU9kK4phsCrPGSCO8yru+6uLqCXTGyZa3pJEicrE07BycT2oXuGLGIXHs9lbDml7rTDYq8yQpbk8g990TMrjLuEEVH7STpD78cX98bC3teF9vkhC40z6103crcUCsrv8jJQ6hrTThJom+RDXu2H9AGNzvv1Vu87Lhm3wq3NFt7cdDac7bETBJsPNhzH23a2WnC310rl7VOqkDcXeXerNwk0i1V4ccU+hkt3TW3awQoo76LgKXUgTWLPx2iPJlw8lSnKfGnKSU450a3zU2mf/lDjE3/d0wQQsMuT2RWrs/wi9E84MRvQKa15X3WyJFRVAmEwm+nesu6GQs07IFfQ+ZY0QLYefw/qmX7bqaNNnypI8jk+0zVMx7XV2Rn4CPgysO6H7oXQl90frX4Qoez/MEB1XvdV0Y84PT0TdffV295ukQfEa3qTIGiuw6AJ1XjcDPFk23WcSSvc8ORjtlEO1YGSy5qTyJpCOdwr6uPshV+0/f8BpXpF/QofAAA=</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -815,4 +815,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>43</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F678BE81-DAA9-4B0E-B9EE-2708532138B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_35.xlsx
+++ b/Testdata/TC_35.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Ch8AAB+LCAAAAAAAAAOlWVlvG8kR/isDPiVAqDkoWQfas6BIykuEOiDSsbUvQXOmKXXUnGGmeyTxbQMk2GCzQRAE3mBzIk8bBIhjJLvAxs7xXxaW1nnKX0j1MRdJrTWKIcDTVfVVV1dXV1U30TtXU2ZdkITTOHrYcNechkWiIA5pdPqwkYpJ033QeMdHvauAsCOc4CkRIGwBKuI7V5w+bJwJMdux7cvLy7XL1lqcnNqe47j20/3BMDgjU9ykERc4CkgjR4VvRzV81Amn+0TgEAuskQ8b/WF/rUNo0AXaPo7wKUnWdlNOI8J5LxJUUMIlMiFYkE53/zt6Yb639mDNRfYSvZDcTSkLtVxFUtONHExLRnRKfM/xnKaz1fTWR66747k765trjrf9XgbMBdEAczEkyQUNFGEo8HSm4M6Wt+66nru+ieyVQqCrcICPDll4TC4oJ2GHMMZrecQ2G9gOBKy6njMdZJewRtH9TXiU4NnZiApG6sL34oQE4Kh7zX1ALg8T47/RbADc0RlNxLyL57V1PeYkOZxJb9SD+qgbR6LNSCIez2BTSQh7DgxfJClB9i3MAtSlPIBvGqUk9CeY8TKowkRP4uScz3BADuDA2lLHZcRiHEJkCcoFDYpJlxjoKIlnoBEm341ZuAdajfAKRq65H4GL5bS7cXxeWLeKiVQMqGiAPZ1ikYkv0dHwLL48jNh8mI55kNAxCbu7mfRKHpInz6A7KRfxFKwoSEjTSpQ5/IOTtkhGXRLQKWZHDJzI/RZoqRBQOxXxhIpOzNJpxDObFqjoCaxoRK7yFeZjdAibG0mnx1E/yuS1m1eyqoDj+DKfc5mhnFAit3mQbfcyY1G4C7Rs+5Y5akfkKvcog0JQ3osStRoVwzNCxMqQ0Bwkc96eLC1+mzFkF0MEYQmhDWb4DlSHpvobOc6O+oNpczbqReHtchkTHaTTwzEc3wu1IN8F3gIJwRLYLsPROVCfUHF20M5MX8FBesG3yi/zEBzUGcNzRc6dUqahfhSwNCT6/PejiYpIaZvew1vZaIk0gCPtIxzNR/MZ5FtOdwR8PGxABd7hIoEa3/CDOI1EMpeJAtlG9G0Yno4jNQFmd8ZMEvL9FFqL+V4aBZ04vPtsofbO44iKu1sYp4nOfneHKO/JRJjyLpEpReX4O+ODOmviSS3xaUSmcUSDu3sbnCytD++xEJ6dqjsjiD5fd5ZnUMZ1lZNn/c6wBPpCqGu1pmlzHgdUBas5HmEJb99yZLpkglMGPZmAinqap9pFMmrz80WZMgk9TliW8HzZ8XJoeYNwuhZAryDburUgnkqCDZ3mkyGyy/Ky4QlILzod4Og0hZYizyuL9DzdynI4SnDE5XLyDmIh864WQlme0p2Nv5zskL0ggkZkOosTzPbBJ3TPRJzpjKDp2MfizIygijESZP61C2iOqhqV2fw2MVWO9ArkWTcZcoGohGR86r66kCloSC5xH04k62BGx4lOqFnRXsWDvSrawCz1ysXVbAkz98PdCurst8lcNtzFwNBVtLoZQ8euzKH+8Hh9y9twWh70MHKM1IqPCWZWD86xIFY/uiBcTAG2Yx0TTkP4opjtWO+SMaFQ/5SLTAWqjS7j0F6W4pUpbbC3SqkKQGdxSqGCLAvmnALgnxCcsHlJUC91EAcgd/Pjf1//5sXrl5/efPjszec//O8/fvX6nz+7fv4j+Lj569+uP/qlXqYWRiM8ZkQZNNrd2nJa6xBnOQlJ59qqCQ7TQCjayYnqffMxMnc1Nej0+p1Hg12VSnJiBtfVxJbXwHmcFsOhXoSaSG2pnUWCFvFHWWoy4wq3VJ18eS27IFXpMv82oPbFV68+/erVn29FG4cVbZa7vb3RdL23dmGe47pLcnkXNqikfym83nQ2mp5XEl6QQcc69+d+6od+y3W2Ha/luHkaD/NAXiW0yDKaRvjUXsBpUkd3RnkIlMcZUwX+CI5IztZHoTQwIfr5T9785VlFynjXUKpawDjVwcjJ7GygVB8cj6zh4ePjTs8a9YYyTgpeSU4r/xphM3t+nipBFUUpZt+yoK5DHbMacPdpWPHEIjg4s+ZwEkvnsBJsq6h6onuqXLTyURKnM70jJUBBXSGZZ5OViBW5RvGUP5eSTsFaIa5tvf77Z6sAZiHdopf1j/d3rWmUx6WioQpHk0p8c2o/+dfrLz54/fLlzYufX3/xg4oGM0/+AABxDqepPMzDHlKeqTcLFPRkqJx57ny3VF8MUd6hjmIaCe67D9T1yYwQQF2pTf2P+lMoeUqx8hfQFyjoXcx7V8IcbP8A2VUC2DnDUG3j4paZE3QOL/z6n9/+7ubXn918/OLNB3+6/vCP1x99/NWr3795/gd96m6evbj56XOT5RcLgbJF3l11/2epl5DAkqfRkrXb+vL9X1hRLCxoOaxUZaQv3/+kpEwaqpqTQjN0c7khVROWRMtgibNKpuQ2VHA5RDcAHVnCWrmEKWLxjAbFJO81pSp57hTjG/1RM+XEiqGb+iaspCpcgO+KMxBdUo82Hc/1DFdbI5cwxrzk+kcsHkOTkTHUU8OCSAX19YBCVs33aHC42x4UItqIwyQkiQxD/YH6PGsqs/AqUYALzV6QMvkitCS2zELZVyl12eZpZdIOZcpb/TJRkUCdNEl0ExSZJ/lhOoMGOHuAu52vHiVLPe+B7k/LXXAx7nerfBiXuFD8qmxJUHyVjgxLp6Y+l684uoU9kK4phsCrPGSCO8yru+6uLqCXTGyZa3pJEicrE07BycT2oXuGLGIXHs9lbDml7rTDYq8yQpbk8g990TMrjLuEEVH7STpD78cX98bC3teF9vkhC40z6103crcUCsrv8jJQ6hrTThJom+RDXu2H9AGNzvv1Vu87Lhm3wq3NFt7cdDac7bETBJsPNhzH23a2WnC310rl7VOqkDcXeXerNwk0i1V4ccU+hkt3TW3awQoo76LgKXUgTWLPx2iPJlw8lSnKfGnKSU450a3zU2mf/lDjE3/d0wQQsMuT2RWrs/wi9E84MRvQKa15X3WyJFRVAmEwm+nesu6GQs07IFfQ+ZY0QLYefw/qmX7bqaNNnypI8jk+0zVMx7XV2Rn4CPgysO6H7oXQl90frX4Qoez/MEB1XvdV0Y84PT0TdffV295ukQfEa3qTIGiuw6AJ1XjcDPFk23WcSSvc8ORjtlEO1YGSy5qTyJpCOdwr6uPshV+0/f8BpXpF/QofAAA=</t>
+          <t>ER0AAB+LCAAAAAAAAAOlWVtvG8cV/isLPrVAyV2Ski0Low14k0KUFAWSqqy8FMPdkTj1XtidWUl8S4EEKdIURVE4RXpFn1IUqGu0CZDavfyXwJLdp/6FnrnsjaRirWoI1s4535k5c+bcZoTeufI944JEjIbBXqVesyoGCZzQpcH5XiXmZ9X6g8o7NupdOcQ7whH2CQewAVIB271idK8y53yxa5qXl5e1y2YtjM7NhmXVzcfDwcSZEx9XacA4DhxSSaXct0tVbNRx/SHh2MUcK8m9Sn/Sr3UIdbpAG+IAn5Oo1o4ZDQhjvYBTTgkTkhHBnHS6w++pjdmN2oNaHZlr9AzZjqnnKlwBqegaB8uSKfWJ3bDqO1Vrp9qsT62Hu8367tZObXt7671EMAWiAWZ8QqIL6kjChGN/IcWtnWbdetisb+0gcyMI5soMYKOR547JBWXE7RDPY6UsYuoDbDkcdl3OmBYyc7J6ovurcBDhxXxKuUfKqTEetg0/0Lpkk9hoP4yIA/a7l0qH5HIUabNOFwPgTuc04ssuXpae65iRaLQQRionaqNuGPCWRyJ+vICzJi64AjBsHsUEmbcwM6EuZQ580yAmrn2GPZYXKjDRSRg9YQvskEOIY1PMcRl4IXbB4ThlnDrZomsMdBSFC5gRFm+HnrsPs2rwBkY6cz8AE4tl22H4JNNuExPJU5XnC2fqY57A1+hoMg8vR4G3nMQz5kR0RtxuO0Fv5CERkFq6EzMe+qBFRkKKlqMs4R8E4CoZdYlDfewdeWBEZjdhlgIBtWIenlHeCb3YD1ii0woVncCOpuQq3WE6RiM43EAYPQz6QYJXZt7IKgqMw8t0zXWGNEKO3GJOctzrjFVwF2jJ8a1z5ImIXe5TD+pD/ixy1KJXTOaE8I0uoThIpMJ9UXHsluchMxsicEtwbVDDtqBoVOXP1LJ25Q8sm7JRL3BvxyVMdBj7oxmE74XckF0H3goJwRa8toeDJ0A9oXx+2EpU38BBasO34td5CAJ14eGlJKdGydNQP3C82CUq/vvBmfRIoZs6w1vZaI00gJC2EQ6W0+UC0jCjuxw+9ipQmHcZj6D0V2wnjAMeLUWiQKaGvk2GxbNALoC9O8ucReSHMXQcy/04cDqhe/fVXGWd44Dyu2sYxpHKfncXkdYTiTBmXSJSiszxd5Z3yuyJRaXgfkD8MKDO3a0NRhbau/fYCEui6s4SRMXXnfEelHFV5USs31ksgnYR6lqpZVqMhQ6VzqrDw83Jm7eETJec4diDVo1DRT1PU+0qGbXYk1VMnoSOIy9JeLZohBl0wo7r1xzoFUS3V3NCXxBMaEBPJsjM40XD45BecD7AwXkMLUWaV1bpaboV5XAa4YCJ7aQdxErm3QxCSZ5SnY29nuyQuQJBU+Ivwgh7Q7AJ3dcepzsjaDqGmM/1CKqYR5zEvmYmmkoVlUp0fhtMliO1AxHrOkOuECVI+KdqtzNMRkNii0OISK+DPTqLVEJNivYmHpxV1gYmqVdsrmRLmJgfrlxQZ79LlqIPzwaaLr21njCU74ocak/GWzuNbavZgB5GjJHc8Zhgz+hBHHNi9IMLwrgPYrvGmDDqwhfF3q7xLpkRCvVPmkhXoNLSeTm0n6R4qUoL9C1SigDoLM4pVJB1YMrJBOxTgiNvmQOqrQ5CB3A3P/739W+ev3rx+c3HT998+cF///GrV//82fWzD+Hj5q9/u/7kl2qbCoymeOYRqdC0vbNjNbfAz1ISEsY1ZRPsxg6XtNNT2fumY6SvcHLQ6fU7B4O2TCUpMRFX1cQUt8NlGGfDidqEXEgeqZl4goLY0yQ16XGBm6tOtritXZAiOs+/TVDZ4vXLz1+//POt0tpgWZtVf/Rou1pvvLULg3tvfQ2XdmGDQvoX4K2qtV1tNHLgFQwaq9yf2qnv2nCtfmQ1mlY9TeNu6sibQKssPdMUn5srcorUUZ1R6gL5ccKUjj+FEEnZKhRyA+2iX/7kzV+eFlDauppSnAWUkx2MWMxMBnLqw/HUmIyOx52eMe1NhJ9kvBxOTf4NYL16Gk8FpwqCGHvfMaCuQx0zKnD3qRjhmUGwMzeWEIm5OCw42yaqWuieU65qeRCF8UKdSE4go25Aptlko8SGXCN50p5rSSdjbYArXa///sUmAb2RbtbLpi8deRoqcBQpx9dR+9m/Xn310asXL26e//z6qx8VZtDrpA8A4OcQTflh6vaQ8nS9WaGgk4k05hPr+7n6ooniDnUU0oAzu/5AXp/0CIFoXcwmf6O+DyVPTiztBfQVCnoXs94V14FtHyKzSAA9FxiqbZjdMlOCyuGZXf/z29/d/PqLm0+fv/noT9cf//H6k09fv/z9m2d/UFF38/T5zU+f6Sy/WgikLuLuqvo/Q76EOIaIRkPUbuPr939hBCE3oOUwYpmRvn7/s9xkQlHZnGQzQzeXKlJUYQ2aFxZyRk6VVIeCXCqiGoCOKGHNFKGLWLigTrbIe1UxlYg7yfhWf1qNGTFC6Ka+DTspgjPhu8ppEVVSjx5ajXpDc5U2YgszzHKmP/DCGTQZCUM+NaxAClLfLJBh5XoHg1G7NcggSolR5JJIuKH6QElLKUpKnyWjxNVyFOBC4+fEnngdWoOts9KZc2nM1M8sZy1XpL/NrxQFBOrEUaQaokC/2k/iBTTDyWPc7Xz5QJnrfw9Vr5rviLNxv1vkwzjHhUJYZAuC5MvUpFkqTfWZeNFR7eyhME02BF7hURPMoR/mVad1AX1lZIq804uiMNqYfDJOAhtCJw0ZxcwsnmLkmaqu283OKiEkCS/9UJc+vcOwSzzCy71am5n0MLy4tyycfVnRPht5rjZmuatHapZsgvzTvXCU//flXjlbK4qgsRJPfaWf2pM76xiuuiW1UVuRguIGCKvrt/B9GjH+WGQC/aUopynlVHWoj8WFS33I8am91VAEAJj52c2CmknocvUHlNAbUJ+WvBZaSXwXJwFbLhaqheuX8xRRWg7JFTSYuRkgKc5+AGVDPaGUmU05LOTSVF48WzJ6PudlFXs4w8QlM6vqzEijuuVaO9VHhDSr9Tr8j51Gw7K2xaOnnhwyByWXJRcxkwPL/rBp/w8lieNLER0AAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -815,37 +815,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>43</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F678BE81-DAA9-4B0E-B9EE-2708532138B2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>